--- a/medicine/Bioéthique/Alex_Hershaft/Alex_Hershaft.xlsx
+++ b/medicine/Bioéthique/Alex_Hershaft/Alex_Hershaft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Hershaft, né le 1er juillet 1934, est un militant américain des droits des animaux. Il est le cofondateur et président du Farm Animal Rights Movement (FARM), la plus ancienne organisation des États-Unis (1976) consacrée exclusivement à la promotion des droits des animaux.
 Lui-même survivant de la Shoah, il est notamment connu pour avoir comparé le traitement infligé aux animaux et leur industrialisation et l'Holocauste.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hershaft est né à Varsovie, en Pologne.
 Il devient végétarien en 1961 et végan en 1981.
